--- a/man/tables/ae_detail_EXAMPLE_STUDY_Cohort_C_30OCT2020.xlsx
+++ b/man/tables/ae_detail_EXAMPLE_STUDY_Cohort_C_30OCT2020.xlsx
@@ -23,13 +23,13 @@
     <t xml:space="preserve"># of subjects that have experienced the AE</t>
   </si>
   <si>
-    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=5)</t>
   </si>
   <si>
     <t xml:space="preserve"># of subjects that experienced the event at a grade 3 to 5</t>
   </si>
   <si>
-    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
+    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=5)</t>
   </si>
   <si>
     <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ANEMIA</t>
   </si>
   <si>
-    <t xml:space="preserve">33.33</t>
+    <t xml:space="preserve">20.00</t>
   </si>
   <si>
     <t xml:space="preserve">FEBRILE NEUTROPENIA</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">DIARRHEA</t>
   </si>
   <si>
-    <t xml:space="preserve">66.67</t>
+    <t xml:space="preserve">40.00</t>
   </si>
   <si>
     <t xml:space="preserve">DRY MOUTH</t>

--- a/man/tables/ae_detail_EXAMPLE_STUDY_Cohort_C_30OCT2020.xlsx
+++ b/man/tables/ae_detail_EXAMPLE_STUDY_Cohort_C_30OCT2020.xlsx
@@ -23,13 +23,13 @@
     <t xml:space="preserve"># of subjects that have experienced the AE</t>
   </si>
   <si>
-    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=5)</t>
+    <t xml:space="preserve">the % of subjects that this comprises of the total accrual (N=3)</t>
   </si>
   <si>
     <t xml:space="preserve"># of subjects that experienced the event at a grade 3 to 5</t>
   </si>
   <si>
-    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=5)</t>
+    <t xml:space="preserve">% of the subjects that this comprises of the total accrual (N=3)</t>
   </si>
   <si>
     <t xml:space="preserve">BLOOD AND LYMPHATIC SYSTEM DISORDERS</t>
@@ -38,7 +38,7 @@
     <t xml:space="preserve">ANEMIA</t>
   </si>
   <si>
-    <t xml:space="preserve">20.00</t>
+    <t xml:space="preserve">33.33</t>
   </si>
   <si>
     <t xml:space="preserve">FEBRILE NEUTROPENIA</t>
@@ -62,7 +62,7 @@
     <t xml:space="preserve">DIARRHEA</t>
   </si>
   <si>
-    <t xml:space="preserve">40.00</t>
+    <t xml:space="preserve">66.67</t>
   </si>
   <si>
     <t xml:space="preserve">DRY MOUTH</t>
